--- a/Anna Plots/Graph_5_Ice_Mass_data.xlsx
+++ b/Anna Plots/Graph_5_Ice_Mass_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\University UT\Year 4 Courses\STA313\STA313 Github\DataVisProject\Anna Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46861CF0-2CF8-4C97-A46F-CE24B4ED80FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BD5784-AC94-48E1-ADFB-DC05A428BD42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Antarctic mass change (Gigatonnes)</t>
+    <t>Ice mass change (Gigatonnes)</t>
   </si>
 </sst>
 </file>
@@ -360,10 +360,13 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
